--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>e6ac3007-7469-4f2c-a26e-21b04598c2f1</t>
+    <t>8f23010c-1c59-485a-84d8-b03e9f4a606f</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>8f23010c-1c59-485a-84d8-b03e9f4a606f</t>
+    <t>f27191b8-b523-4bad-9f17-1cfb666658d2</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>f27191b8-b523-4bad-9f17-1cfb666658d2</t>
+    <t>8709b082-29b1-496e-b10b-a353d64faea8</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>8709b082-29b1-496e-b10b-a353d64faea8</t>
+    <t>226a19e4-cbe9-46dd-874c-b3689dabac14</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>226a19e4-cbe9-46dd-874c-b3689dabac14</t>
+    <t>1205e084-4ade-4a63-b564-a35b83118f34</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/backend/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>1205e084-4ade-4a63-b564-a35b83118f34</t>
+    <t>f60cac74-8855-4bb0-afb4-7d5246ee2cc7</t>
   </si>
   <si>
     <t>AÇU</t>
